--- a/biology/Botanique/Linospadix/Linospadix.xlsx
+++ b/biology/Botanique/Linospadix/Linospadix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Linospadix est un genre de plantes de la famille des Arecaceae (palmiers). Les espèces sont natives de Nouvelle-Guinée et d'Australie.
 </t>
@@ -511,11 +523,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
-Sous-tribu : Laccospadicinae[1]
+Sous-tribu : Laccospadicinae
 Le genre Linospadix partage sa sous-tribu avec trois autres genres : Howea, Laccospadix et Calyptrocalyx.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (7 juin 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (7 juin 2016) :
 Linospadix albertisianus (Becc.) Burret, Notizbl. Bot. Gart. Berlin-Dahlem 12: 331 (1935).
 Linospadix apetiolatus Dowe &amp; A.K.Irvine, Principes 41: 215 (1997).
 Linospadix caninus (Becc.) Burret, Notizbl. Bot. Gart. Berlin-Dahlem 12: 331 (1935).
